--- a/Red River/math-1202/Project1.xlsx
+++ b/Red River/math-1202/Project1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coled\Desktop\Github\schoolwork\Red River\math-1202\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E5B25C-1368-4792-89A8-7C47346B75DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88867F3F-10F7-4F9A-B20C-278E16A6B34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -268,22 +268,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -590,19 +590,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>23</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>24</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2249,40 +2249,40 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1">
         <f ca="1">RANDBETWEEN(0,51)</f>
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B1">
         <f ca="1">A1/51</f>
-        <v>0.62745098039215685</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C1">
         <f ca="1">B1*100</f>
-        <v>62.745098039215684</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="D1" t="str">
         <f t="shared" ref="D1:D65" ca="1" si="0">IF(C1&gt;=90,"A+",IF(C1&gt;=80,"A",IF(C1&gt;=70,"B",IF(C1&gt;=60,"C",IF(C1&gt;=50,"D",IF(1=1,"F"))))))</f>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1">
         <f ca="1">COUNTIFS(D1:D100, "A+")</f>
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <f t="shared" ref="A2:A65" ca="1" si="1">RANDBETWEEN(0,51)</f>
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B65" ca="1" si="2">A2/51</f>
-        <v>0.35294117647058826</v>
+        <v>9.8039215686274508E-2</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:C65" ca="1" si="3">B2*100</f>
-        <v>35.294117647058826</v>
+        <v>9.8039215686274517</v>
       </c>
       <c r="D2" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2293,71 +2293,71 @@
       </c>
       <c r="F2">
         <f ca="1">COUNTIFS(D1:D100, "A")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.80392156862745101</v>
+        <v>0.47058823529411764</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="3"/>
-        <v>80.392156862745097</v>
+        <v>47.058823529411761</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
       </c>
       <c r="F3">
         <f ca="1">COUNTIFS(D1:D100, "B")</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="2"/>
-        <v>0.88235294117647056</v>
+        <v>0.90196078431372551</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="3"/>
-        <v>88.235294117647058</v>
+        <v>90.196078431372555</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>A+</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
       </c>
       <c r="F4">
         <f ca="1">COUNTIFS(D1:D100, "C")</f>
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31372549019607843</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="3"/>
-        <v>31.372549019607842</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2368,122 +2368,122 @@
       </c>
       <c r="F5">
         <f ca="1">COUNTIFS(D1:D100, "D")</f>
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="2"/>
-        <v>0.62745098039215685</v>
+        <v>0.90196078431372551</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="3"/>
-        <v>62.745098039215684</v>
+        <v>90.196078431372555</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>A+</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
       </c>
       <c r="F6">
         <f ca="1">COUNTIFS(D1:D100, "D")</f>
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.17647058823529413</v>
+        <v>0.68627450980392157</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="3"/>
-        <v>17.647058823529413</v>
+        <v>68.627450980392155</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>C</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.66666666666666663</v>
+        <v>0.19607843137254902</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="3"/>
-        <v>66.666666666666657</v>
+        <v>19.607843137254903</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>F</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="2"/>
-        <v>0.72549019607843135</v>
+        <v>0.47058823529411764</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="3"/>
-        <v>72.549019607843135</v>
+        <v>47.058823529411761</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>F</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58823529411764708</v>
+        <v>0.62745098039215685</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="3"/>
-        <v>58.82352941176471</v>
+        <v>62.745098039215684</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>C</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58823529411764708</v>
+        <v>0.21568627450980393</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="3"/>
-        <v>58.82352941176471</v>
+        <v>21.568627450980394</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>F</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -2507,51 +2507,51 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.96078431372549022</v>
+        <v>0.88235294117647056</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="3"/>
-        <v>96.078431372549019</v>
+        <v>88.235294117647058</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A+</v>
+        <v>A</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.9607843137254902E-2</v>
+        <v>0.50980392156862742</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.9607843137254901</v>
+        <v>50.980392156862742</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>D</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37254901960784315</v>
+        <v>0.25490196078431371</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="3"/>
-        <v>37.254901960784316</v>
+        <v>25.490196078431371</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2561,15 +2561,15 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37254901960784315</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="3"/>
-        <v>37.254901960784316</v>
+        <v>17.647058823529413</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2579,87 +2579,87 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="2"/>
-        <v>0.68627450980392157</v>
+        <v>0.74509803921568629</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="3"/>
-        <v>68.627450980392155</v>
+        <v>74.509803921568633</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="2"/>
-        <v>0.56862745098039214</v>
+        <v>0.88235294117647056</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="3"/>
-        <v>56.862745098039213</v>
+        <v>88.235294117647058</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>A</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.47058823529411764</v>
+        <v>0.98039215686274506</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="3"/>
-        <v>47.058823529411761</v>
+        <v>98.039215686274503</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>A+</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="2"/>
-        <v>0.90196078431372551</v>
+        <v>0.50980392156862742</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="3"/>
-        <v>90.196078431372555</v>
+        <v>50.980392156862742</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A+</v>
+        <v>D</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="2"/>
-        <v>0.35294117647058826</v>
+        <v>0.13725490196078433</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="3"/>
-        <v>35.294117647058826</v>
+        <v>13.725490196078432</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2669,37 +2669,37 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="2"/>
-        <v>0.94117647058823528</v>
+        <v>0.27450980392156865</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="3"/>
-        <v>94.117647058823522</v>
+        <v>27.450980392156865</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A+</v>
+        <v>F</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="2"/>
-        <v>0.74509803921568629</v>
+        <v>0.82352941176470584</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="3"/>
-        <v>74.509803921568633</v>
+        <v>82.35294117647058</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>A</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -2723,33 +2723,33 @@
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="2"/>
-        <v>5.8823529411764705E-2</v>
+        <v>0.88235294117647056</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="3"/>
-        <v>5.8823529411764701</v>
+        <v>88.235294117647058</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>A</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15686274509803921</v>
+        <v>0.27450980392156865</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="3"/>
-        <v>15.686274509803921</v>
+        <v>27.450980392156865</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2759,15 +2759,15 @@
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="2"/>
-        <v>0.11764705882352941</v>
+        <v>0.25490196078431371</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="3"/>
-        <v>11.76470588235294</v>
+        <v>25.490196078431371</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2777,51 +2777,51 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="2"/>
-        <v>9.8039215686274508E-2</v>
+        <v>0.84313725490196079</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="3"/>
-        <v>9.8039215686274517</v>
+        <v>84.313725490196077</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>A</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="2"/>
-        <v>0.6470588235294118</v>
+        <v>0.29411764705882354</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="3"/>
-        <v>64.705882352941174</v>
+        <v>29.411764705882355</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>F</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="2"/>
-        <v>0.49019607843137253</v>
+        <v>0.45098039215686275</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="3"/>
-        <v>49.019607843137251</v>
+        <v>45.098039215686278</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2849,15 +2849,15 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="2"/>
-        <v>7.8431372549019607E-2</v>
+        <v>0.15686274509803921</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="3"/>
-        <v>7.8431372549019605</v>
+        <v>15.686274509803921</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2867,87 +2867,87 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="2"/>
-        <v>0.96078431372549022</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="3"/>
-        <v>96.078431372549019</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A+</v>
+        <v>F</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="2"/>
-        <v>0.80392156862745101</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="3"/>
-        <v>80.392156862745097</v>
+        <v>64.705882352941174</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>C</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="2"/>
-        <v>0.86274509803921573</v>
+        <v>0.90196078431372551</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="3"/>
-        <v>86.274509803921575</v>
+        <v>90.196078431372555</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>A+</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="2"/>
-        <v>0.66666666666666663</v>
+        <v>0.35294117647058826</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="3"/>
-        <v>66.666666666666657</v>
+        <v>35.294117647058826</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>F</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="2"/>
-        <v>0.21568627450980393</v>
+        <v>0.13725490196078433</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="3"/>
-        <v>21.568627450980394</v>
+        <v>13.725490196078432</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2975,19 +2975,19 @@
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="2"/>
-        <v>0.68627450980392157</v>
+        <v>0.50980392156862742</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="3"/>
-        <v>68.627450980392155</v>
+        <v>50.980392156862742</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>D</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
@@ -3011,105 +3011,105 @@
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="2"/>
-        <v>0.94117647058823528</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="3"/>
-        <v>94.117647058823522</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A+</v>
+        <v>F</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="2"/>
-        <v>0.66666666666666663</v>
+        <v>0.41176470588235292</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="3"/>
-        <v>66.666666666666657</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>F</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="2"/>
-        <v>0.5490196078431373</v>
+        <v>0.27450980392156865</v>
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="3"/>
-        <v>54.901960784313729</v>
+        <v>27.450980392156865</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>F</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="2"/>
-        <v>0.50980392156862742</v>
+        <v>0.25490196078431371</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="3"/>
-        <v>50.980392156862742</v>
+        <v>25.490196078431371</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>F</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15686274509803921</v>
+        <v>0.70588235294117652</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="3"/>
-        <v>15.686274509803921</v>
+        <v>70.588235294117652</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>B</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15686274509803921</v>
+        <v>7.8431372549019607E-2</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="3"/>
-        <v>15.686274509803921</v>
+        <v>7.8431372549019605</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3119,105 +3119,105 @@
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="2"/>
-        <v>3.9215686274509803E-2</v>
+        <v>0.58823529411764708</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="3"/>
-        <v>3.9215686274509802</v>
+        <v>58.82352941176471</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>D</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="2"/>
-        <v>0.60784313725490191</v>
+        <v>0</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="3"/>
-        <v>60.784313725490193</v>
+        <v>0</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>F</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>0.92156862745098034</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="3"/>
-        <v>33.333333333333329</v>
+        <v>92.156862745098039</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>A+</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="2"/>
-        <v>0.6470588235294118</v>
+        <v>0.37254901960784315</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="3"/>
-        <v>64.705882352941174</v>
+        <v>37.254901960784316</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C</v>
+        <v>F</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="2"/>
-        <v>0.19607843137254902</v>
+        <v>0.90196078431372551</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="3"/>
-        <v>19.607843137254903</v>
+        <v>90.196078431372555</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>A+</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="2"/>
-        <v>9.8039215686274508E-2</v>
+        <v>0.29411764705882354</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="3"/>
-        <v>9.8039215686274517</v>
+        <v>29.411764705882355</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3227,91 +3227,91 @@
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="2"/>
-        <v>0.72549019607843135</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="3"/>
-        <v>72.549019607843135</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>F</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="2"/>
-        <v>0.76470588235294112</v>
+        <v>0.96078431372549022</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="3"/>
-        <v>76.470588235294116</v>
+        <v>96.078431372549019</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>A+</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="2"/>
-        <v>0.27450980392156865</v>
+        <v>1</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="3"/>
-        <v>27.450980392156865</v>
+        <v>100</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>A+</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="2"/>
-        <v>0.80392156862745101</v>
+        <v>1</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="3"/>
-        <v>80.392156862745097</v>
+        <v>100</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>A+</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58823529411764708</v>
+        <v>0.76470588235294112</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="3"/>
-        <v>58.82352941176471</v>
+        <v>76.470588235294116</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>B</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
@@ -3335,123 +3335,123 @@
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="2"/>
-        <v>9.8039215686274508E-2</v>
+        <v>0.56862745098039214</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="3"/>
-        <v>9.8039215686274517</v>
+        <v>56.862745098039213</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>D</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="2"/>
-        <v>0.11764705882352941</v>
+        <v>0.86274509803921573</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="3"/>
-        <v>11.76470588235294</v>
+        <v>86.274509803921575</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>F</v>
+        <v>A</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="2"/>
-        <v>0.5490196078431373</v>
+        <v>1</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="3"/>
-        <v>54.901960784313729</v>
+        <v>100</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>D</v>
+        <v>A+</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="2"/>
-        <v>0.82352941176470584</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="3"/>
-        <v>82.35294117647058</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A</v>
+        <v>F</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="2"/>
-        <v>0.70588235294117652</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="3"/>
-        <v>70.588235294117652</v>
+        <v>17.647058823529413</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>B</v>
+        <v>F</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="2"/>
-        <v>0.92156862745098034</v>
+        <v>0.70588235294117652</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="3"/>
-        <v>92.156862745098039</v>
+        <v>70.588235294117652</v>
       </c>
       <c r="D64" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A+</v>
+        <v>B</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B65">
         <f t="shared" ca="1" si="2"/>
-        <v>1.9607843137254902E-2</v>
+        <v>0.45098039215686275</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="3"/>
-        <v>1.9607843137254901</v>
+        <v>45.098039215686278</v>
       </c>
       <c r="D65" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3461,69 +3461,69 @@
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66">
         <f t="shared" ref="A66:A100" ca="1" si="4">RANDBETWEEN(0,51)</f>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="B66">
         <f t="shared" ref="B66:B100" ca="1" si="5">A66/51</f>
-        <v>0</v>
+        <v>0.84313725490196079</v>
       </c>
       <c r="C66">
         <f t="shared" ref="C66:C100" ca="1" si="6">B66*100</f>
-        <v>0</v>
+        <v>84.313725490196077</v>
       </c>
       <c r="D66" t="str">
         <f t="shared" ref="D66:D100" ca="1" si="7">IF(C66&gt;=90,"A+",IF(C66&gt;=80,"A",IF(C66&gt;=70,"B",IF(C66&gt;=60,"C",IF(C66&gt;=50,"D",IF(1=1,"F"))))))</f>
-        <v>F</v>
+        <v>A</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67">
         <f t="shared" ca="1" si="4"/>
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="B67">
         <f t="shared" ca="1" si="5"/>
-        <v>0.80392156862745101</v>
+        <v>3.9215686274509803E-2</v>
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="6"/>
-        <v>80.392156862745097</v>
+        <v>3.9215686274509802</v>
       </c>
       <c r="D67" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>A</v>
+        <v>F</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="B68">
         <f t="shared" ca="1" si="5"/>
-        <v>0.98039215686274506</v>
+        <v>0.45098039215686275</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="6"/>
-        <v>98.039215686274503</v>
+        <v>45.098039215686278</v>
       </c>
       <c r="D68" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>A+</v>
+        <v>F</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B69">
         <f t="shared" ca="1" si="5"/>
-        <v>0.13725490196078433</v>
+        <v>0.19607843137254902</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="6"/>
-        <v>13.725490196078432</v>
+        <v>19.607843137254903</v>
       </c>
       <c r="D69" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -3533,51 +3533,51 @@
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70">
         <f t="shared" ca="1" si="4"/>
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B70">
         <f t="shared" ca="1" si="5"/>
-        <v>0.35294117647058826</v>
+        <v>0.78431372549019607</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="6"/>
-        <v>35.294117647058826</v>
+        <v>78.431372549019613</v>
       </c>
       <c r="D70" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>F</v>
+        <v>B</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71">
         <f t="shared" ca="1" si="4"/>
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B71">
         <f t="shared" ca="1" si="5"/>
-        <v>0.66666666666666663</v>
+        <v>0.96078431372549022</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="6"/>
-        <v>66.666666666666657</v>
+        <v>96.078431372549019</v>
       </c>
       <c r="D71" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>C</v>
+        <v>A+</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B72">
         <f t="shared" ca="1" si="5"/>
-        <v>0.23529411764705882</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="6"/>
-        <v>23.52941176470588</v>
+        <v>17.647058823529413</v>
       </c>
       <c r="D72" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -3587,87 +3587,87 @@
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73">
         <f t="shared" ca="1" si="4"/>
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B73">
         <f t="shared" ca="1" si="5"/>
-        <v>0.50980392156862742</v>
+        <v>0.86274509803921573</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="6"/>
-        <v>50.980392156862742</v>
+        <v>86.274509803921575</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>D</v>
+        <v>A</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74">
         <f t="shared" ca="1" si="4"/>
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B74">
         <f t="shared" ca="1" si="5"/>
-        <v>0.68627450980392157</v>
+        <v>0.96078431372549022</v>
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="6"/>
-        <v>68.627450980392155</v>
+        <v>96.078431372549019</v>
       </c>
       <c r="D74" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>C</v>
+        <v>A+</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75">
         <f t="shared" ca="1" si="4"/>
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B75">
         <f t="shared" ca="1" si="5"/>
-        <v>0.52941176470588236</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="6"/>
-        <v>52.941176470588239</v>
+        <v>64.705882352941174</v>
       </c>
       <c r="D75" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>D</v>
+        <v>C</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76">
         <f t="shared" ca="1" si="4"/>
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B76">
         <f t="shared" ca="1" si="5"/>
-        <v>0.80392156862745101</v>
+        <v>0.19607843137254902</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="6"/>
-        <v>80.392156862745097</v>
+        <v>19.607843137254903</v>
       </c>
       <c r="D76" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>A</v>
+        <v>F</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77">
         <f t="shared" ca="1" si="4"/>
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B77">
         <f t="shared" ca="1" si="5"/>
-        <v>0.29411764705882354</v>
+        <v>7.8431372549019607E-2</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="6"/>
-        <v>29.411764705882355</v>
+        <v>7.8431372549019605</v>
       </c>
       <c r="D77" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -3677,105 +3677,105 @@
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78">
         <f t="shared" ca="1" si="4"/>
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B78">
         <f t="shared" ca="1" si="5"/>
-        <v>0.82352941176470584</v>
+        <v>0.94117647058823528</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="6"/>
-        <v>82.35294117647058</v>
+        <v>94.117647058823522</v>
       </c>
       <c r="D78" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>A</v>
+        <v>A+</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B79">
         <f t="shared" ca="1" si="5"/>
-        <v>0.23529411764705882</v>
+        <v>0.52941176470588236</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="6"/>
-        <v>23.52941176470588</v>
+        <v>52.941176470588239</v>
       </c>
       <c r="D79" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>F</v>
+        <v>D</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B80">
         <f t="shared" ca="1" si="5"/>
-        <v>0.23529411764705882</v>
+        <v>0.90196078431372551</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="6"/>
-        <v>23.52941176470588</v>
+        <v>90.196078431372555</v>
       </c>
       <c r="D80" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>F</v>
+        <v>A+</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B81">
         <f t="shared" ca="1" si="5"/>
-        <v>7.8431372549019607E-2</v>
+        <v>0.92156862745098034</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="6"/>
-        <v>7.8431372549019605</v>
+        <v>92.156862745098039</v>
       </c>
       <c r="D81" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>F</v>
+        <v>A+</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82">
         <f t="shared" ca="1" si="4"/>
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B82">
         <f t="shared" ca="1" si="5"/>
-        <v>0.33333333333333331</v>
+        <v>0.78431372549019607</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="6"/>
-        <v>33.333333333333329</v>
+        <v>78.431372549019613</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>F</v>
+        <v>B</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B83">
         <f t="shared" ca="1" si="5"/>
-        <v>0.17647058823529413</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="6"/>
-        <v>17.647058823529413</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="D83" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -3785,15 +3785,15 @@
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B84">
         <f t="shared" ca="1" si="5"/>
-        <v>0.11764705882352941</v>
+        <v>0.39215686274509803</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="6"/>
-        <v>11.76470588235294</v>
+        <v>39.215686274509807</v>
       </c>
       <c r="D84" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -3803,87 +3803,87 @@
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85">
         <f t="shared" ca="1" si="4"/>
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B85">
         <f t="shared" ca="1" si="5"/>
-        <v>0.88235294117647056</v>
+        <v>0.29411764705882354</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="6"/>
-        <v>88.235294117647058</v>
+        <v>29.411764705882355</v>
       </c>
       <c r="D85" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>A</v>
+        <v>F</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B86">
         <f t="shared" ca="1" si="5"/>
-        <v>0.31372549019607843</v>
+        <v>0.90196078431372551</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="6"/>
-        <v>31.372549019607842</v>
+        <v>90.196078431372555</v>
       </c>
       <c r="D86" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>F</v>
+        <v>A+</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B87">
         <f t="shared" ca="1" si="5"/>
-        <v>0.23529411764705882</v>
+        <v>0.84313725490196079</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="6"/>
-        <v>23.52941176470588</v>
+        <v>84.313725490196077</v>
       </c>
       <c r="D87" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>F</v>
+        <v>A</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88">
         <f t="shared" ca="1" si="4"/>
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="B88">
         <f t="shared" ca="1" si="5"/>
-        <v>0.6470588235294118</v>
+        <v>9.8039215686274508E-2</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="6"/>
-        <v>64.705882352941174</v>
+        <v>9.8039215686274517</v>
       </c>
       <c r="D88" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>C</v>
+        <v>F</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B89">
         <f t="shared" ca="1" si="5"/>
-        <v>0.15686274509803921</v>
+        <v>0.29411764705882354</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="6"/>
-        <v>15.686274509803921</v>
+        <v>29.411764705882355</v>
       </c>
       <c r="D89" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -3893,33 +3893,33 @@
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90">
         <f t="shared" ca="1" si="4"/>
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B90">
         <f t="shared" ca="1" si="5"/>
-        <v>0.50980392156862742</v>
+        <v>0.29411764705882354</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="6"/>
-        <v>50.980392156862742</v>
+        <v>29.411764705882355</v>
       </c>
       <c r="D90" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>D</v>
+        <v>F</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B91">
         <f t="shared" ca="1" si="5"/>
-        <v>0.31372549019607843</v>
+        <v>0.39215686274509803</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="6"/>
-        <v>31.372549019607842</v>
+        <v>39.215686274509807</v>
       </c>
       <c r="D91" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -3929,51 +3929,51 @@
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92">
         <f t="shared" ca="1" si="4"/>
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B92">
         <f t="shared" ca="1" si="5"/>
-        <v>0.68627450980392157</v>
+        <v>7.8431372549019607E-2</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="6"/>
-        <v>68.627450980392155</v>
+        <v>7.8431372549019605</v>
       </c>
       <c r="D92" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>C</v>
+        <v>F</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93">
         <f t="shared" ca="1" si="4"/>
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B93">
         <f t="shared" ca="1" si="5"/>
-        <v>0.62745098039215685</v>
+        <v>0.27450980392156865</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="6"/>
-        <v>62.745098039215684</v>
+        <v>27.450980392156865</v>
       </c>
       <c r="D93" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>C</v>
+        <v>F</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B94">
         <f t="shared" ca="1" si="5"/>
-        <v>0.15686274509803921</v>
+        <v>0.23529411764705882</v>
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="6"/>
-        <v>15.686274509803921</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="D94" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -3983,15 +3983,15 @@
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95">
         <f t="shared" ca="1" si="4"/>
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B95">
         <f t="shared" ca="1" si="5"/>
-        <v>0.37254901960784315</v>
+        <v>1.9607843137254902E-2</v>
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="6"/>
-        <v>37.254901960784316</v>
+        <v>1.9607843137254901</v>
       </c>
       <c r="D95" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4001,33 +4001,33 @@
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96">
         <f t="shared" ca="1" si="4"/>
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B96">
         <f t="shared" ca="1" si="5"/>
-        <v>0.5490196078431373</v>
+        <v>0.82352941176470584</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="6"/>
-        <v>54.901960784313729</v>
+        <v>82.35294117647058</v>
       </c>
       <c r="D96" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>D</v>
+        <v>A</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B97">
         <f t="shared" ca="1" si="5"/>
-        <v>0.17647058823529413</v>
+        <v>0.13725490196078433</v>
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="6"/>
-        <v>17.647058823529413</v>
+        <v>13.725490196078432</v>
       </c>
       <c r="D97" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4037,15 +4037,15 @@
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98">
         <f t="shared" ca="1" si="4"/>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B98">
         <f t="shared" ca="1" si="5"/>
-        <v>0.86274509803921573</v>
+        <v>0.84313725490196079</v>
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="6"/>
-        <v>86.274509803921575</v>
+        <v>84.313725490196077</v>
       </c>
       <c r="D98" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -4055,37 +4055,37 @@
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B99">
         <f t="shared" ca="1" si="5"/>
-        <v>0.21568627450980393</v>
+        <v>0.82352941176470584</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="6"/>
-        <v>21.568627450980394</v>
+        <v>82.35294117647058</v>
       </c>
       <c r="D99" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>F</v>
+        <v>A</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100">
         <f t="shared" ca="1" si="4"/>
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B100">
         <f t="shared" ca="1" si="5"/>
-        <v>0.45098039215686275</v>
+        <v>0.74509803921568629</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="6"/>
-        <v>45.098039215686278</v>
+        <v>74.509803921568633</v>
       </c>
       <c r="D100" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>F</v>
+        <v>B</v>
       </c>
     </row>
   </sheetData>
@@ -4099,7 +4099,7 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4110,19 +4110,19 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1">
         <f ca="1">RANDBETWEEN(0,51)</f>
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="B1">
         <f ca="1">A1/51</f>
-        <v>9.8039215686274508E-2</v>
+        <v>0.88235294117647056</v>
       </c>
       <c r="C1">
         <f ca="1">B1*100</f>
-        <v>9.8039215686274517</v>
+        <v>88.235294117647058</v>
       </c>
       <c r="D1" t="str">
         <f ca="1">IF(C1&gt;=80,"1st",IF(C1&gt;=60,"2nd",IF(C1&gt;=40,"3rd",IF(C1&gt;=20,"4th",IF(1=1,"5th")))))</f>
-        <v>5th</v>
+        <v>1st</v>
       </c>
       <c r="E1" t="s">
         <v>6</v>
@@ -4132,25 +4132,25 @@
       </c>
       <c r="G1">
         <f ca="1">COUNTIFS(D1:D100, "1st")</f>
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <f t="shared" ref="A2:A65" ca="1" si="0">RANDBETWEEN(0,51)</f>
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B65" ca="1" si="1">A2/51</f>
-        <v>0.19607843137254902</v>
+        <v>0.47058823529411764</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:C65" ca="1" si="2">B2*100</f>
-        <v>19.607843137254903</v>
+        <v>47.058823529411761</v>
       </c>
       <c r="D2" t="str">
         <f t="shared" ref="D2:D65" ca="1" si="3">IF(C2&gt;=80,"1st",IF(C2&gt;=60,"2nd",IF(C2&gt;=40,"3rd",IF(C2&gt;=20,"4th",IF(1=1,"5th")))))</f>
-        <v>5th</v>
+        <v>3rd</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -4160,25 +4160,25 @@
       </c>
       <c r="G2">
         <f ca="1">COUNTIFS(D1:D100, "2nd")</f>
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25490196078431371</v>
+        <v>0.90196078431372551</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="2"/>
-        <v>25.490196078431371</v>
+        <v>90.196078431372555</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>4th</v>
+        <v>1st</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -4188,25 +4188,25 @@
       </c>
       <c r="G3">
         <f ca="1">COUNTIFS(D1:D100, "3rd")</f>
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15686274509803921</v>
+        <v>0.52941176470588236</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="2"/>
-        <v>15.686274509803921</v>
+        <v>52.941176470588239</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>5th</v>
+        <v>3rd</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -4216,25 +4216,25 @@
       </c>
       <c r="G4">
         <f ca="1">COUNTIFS(D1:D100, "4th")</f>
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13725490196078433</v>
+        <v>0.90196078431372551</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="2"/>
-        <v>13.725490196078432</v>
+        <v>90.196078431372555</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>5th</v>
+        <v>1st</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -4244,75 +4244,75 @@
       </c>
       <c r="G5">
         <f ca="1">COUNTIFS(D1:D100, "5th")</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0.49019607843137253</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>49.019607843137251</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1st</v>
+        <v>3rd</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8431372549019607E-2</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="2"/>
-        <v>7.8431372549019605</v>
+        <v>100</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>5th</v>
+        <v>1st</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94117647058823528</v>
+        <v>0.37254901960784315</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="2"/>
-        <v>94.117647058823522</v>
+        <v>37.254901960784316</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1st</v>
+        <v>4th</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43137254901960786</v>
+        <v>0.41176470588235292</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="2"/>
-        <v>43.137254901960787</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4322,51 +4322,51 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66666666666666663</v>
+        <v>0.31372549019607843</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="2"/>
-        <v>66.666666666666657</v>
+        <v>31.372549019607842</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2nd</v>
+        <v>4th</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86274509803921573</v>
+        <v>0.23529411764705882</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="2"/>
-        <v>86.274509803921575</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1st</v>
+        <v>4th</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8431372549019607E-2</v>
+        <v>1.9607843137254902E-2</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="2"/>
-        <v>7.8431372549019605</v>
+        <v>1.9607843137254901</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4376,159 +4376,159 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62745098039215685</v>
+        <v>0.86274509803921573</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="2"/>
-        <v>62.745098039215684</v>
+        <v>86.274509803921575</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2nd</v>
+        <v>1st</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49019607843137253</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="2"/>
-        <v>49.019607843137251</v>
+        <v>64.705882352941174</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>3rd</v>
+        <v>2nd</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49019607843137253</v>
+        <v>0.68627450980392157</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="2"/>
-        <v>49.019607843137251</v>
+        <v>68.627450980392155</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>3rd</v>
+        <v>2nd</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19607843137254902</v>
+        <v>0.60784313725490191</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="2"/>
-        <v>19.607843137254903</v>
+        <v>60.784313725490193</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>5th</v>
+        <v>2nd</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.88235294117647056</v>
+        <v>0.31372549019607843</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="2"/>
-        <v>88.235294117647058</v>
+        <v>31.372549019607842</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1st</v>
+        <v>4th</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13725490196078433</v>
+        <v>0.68627450980392157</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="2"/>
-        <v>13.725490196078432</v>
+        <v>68.627450980392155</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>5th</v>
+        <v>2nd</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23529411764705882</v>
+        <v>0.96078431372549022</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="2"/>
-        <v>23.52941176470588</v>
+        <v>96.078431372549019</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>4th</v>
+        <v>1st</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21568627450980393</v>
+        <v>1.9607843137254902E-2</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="2"/>
-        <v>21.568627450980394</v>
+        <v>1.9607843137254901</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>4th</v>
+        <v>5th</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68627450980392157</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="2"/>
-        <v>68.627450980392155</v>
+        <v>64.705882352941174</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4538,33 +4538,33 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15686274509803921</v>
+        <v>0.98039215686274506</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="2"/>
-        <v>15.686274509803921</v>
+        <v>98.039215686274503</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>5th</v>
+        <v>1st</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52941176470588236</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="2"/>
-        <v>52.941176470588239</v>
+        <v>54.901960784313729</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4574,141 +4574,141 @@
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45098039215686275</v>
+        <v>0.92156862745098034</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="2"/>
-        <v>45.098039215686278</v>
+        <v>92.156862745098039</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>3rd</v>
+        <v>1st</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27450980392156865</v>
+        <v>0.98039215686274506</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="2"/>
-        <v>27.450980392156865</v>
+        <v>98.039215686274503</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>4th</v>
+        <v>1st</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70588235294117652</v>
+        <v>0.25490196078431371</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="2"/>
-        <v>70.588235294117652</v>
+        <v>25.490196078431371</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2nd</v>
+        <v>4th</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>17.647058823529413</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1st</v>
+        <v>5th</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92156862745098034</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="2"/>
-        <v>92.156862745098039</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1st</v>
+        <v>4th</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98039215686274506</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="2"/>
-        <v>98.039215686274503</v>
+        <v>64.705882352941174</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1st</v>
+        <v>2nd</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11764705882352941</v>
+        <v>0.98039215686274506</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="2"/>
-        <v>11.76470588235294</v>
+        <v>98.039215686274503</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>5th</v>
+        <v>1st</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27450980392156865</v>
+        <v>0.37254901960784315</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="2"/>
-        <v>27.450980392156865</v>
+        <v>37.254901960784316</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4718,15 +4718,15 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35294117647058826</v>
+        <v>0.31372549019607843</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="2"/>
-        <v>35.294117647058826</v>
+        <v>31.372549019607842</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4736,33 +4736,33 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0.31372549019607843</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>31.372549019607842</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1st</v>
+        <v>4th</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68627450980392157</v>
+        <v>0.76470588235294112</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="2"/>
-        <v>68.627450980392155</v>
+        <v>76.470588235294116</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4772,51 +4772,51 @@
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27450980392156865</v>
+        <v>0.86274509803921573</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="2"/>
-        <v>27.450980392156865</v>
+        <v>86.274509803921575</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>4th</v>
+        <v>1st</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25490196078431371</v>
+        <v>0.60784313725490191</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="2"/>
-        <v>25.490196078431371</v>
+        <v>60.784313725490193</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>4th</v>
+        <v>2nd</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37254901960784315</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="2"/>
-        <v>37.254901960784316</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4826,159 +4826,159 @@
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6470588235294118</v>
+        <v>0.15686274509803921</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="2"/>
-        <v>64.705882352941174</v>
+        <v>15.686274509803921</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2nd</v>
+        <v>5th</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25490196078431371</v>
+        <v>0.52941176470588236</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="2"/>
-        <v>25.490196078431371</v>
+        <v>52.941176470588239</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>4th</v>
+        <v>3rd</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60784313725490191</v>
+        <v>0.41176470588235292</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="2"/>
-        <v>60.784313725490193</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2nd</v>
+        <v>3rd</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27450980392156865</v>
+        <v>0.82352941176470584</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="2"/>
-        <v>27.450980392156865</v>
+        <v>82.35294117647058</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>4th</v>
+        <v>1st</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41176470588235292</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="2"/>
-        <v>41.17647058823529</v>
+        <v>17.647058823529413</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>3rd</v>
+        <v>5th</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78431372549019607</v>
+        <v>7.8431372549019607E-2</v>
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="2"/>
-        <v>78.431372549019613</v>
+        <v>7.8431372549019605</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2nd</v>
+        <v>5th</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92156862745098034</v>
+        <v>0.62745098039215685</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="2"/>
-        <v>92.156862745098039</v>
+        <v>62.745098039215684</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1st</v>
+        <v>2nd</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="1"/>
-        <v>9.8039215686274508E-2</v>
+        <v>0.78431372549019607</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="2"/>
-        <v>9.8039215686274517</v>
+        <v>78.431372549019613</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>5th</v>
+        <v>2nd</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68627450980392157</v>
+        <v>0.60784313725490191</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="2"/>
-        <v>68.627450980392155</v>
+        <v>60.784313725490193</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4988,213 +4988,213 @@
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58823529411764708</v>
+        <v>0.98039215686274506</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="2"/>
-        <v>58.82352941176471</v>
+        <v>98.039215686274503</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>3rd</v>
+        <v>1st</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47058823529411764</v>
+        <v>0.23529411764705882</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="2"/>
-        <v>47.058823529411761</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>3rd</v>
+        <v>4th</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80392156862745101</v>
+        <v>9.8039215686274508E-2</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="2"/>
-        <v>80.392156862745097</v>
+        <v>9.8039215686274517</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1st</v>
+        <v>5th</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98039215686274506</v>
+        <v>0.68627450980392157</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="2"/>
-        <v>98.039215686274503</v>
+        <v>68.627450980392155</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1st</v>
+        <v>2nd</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29411764705882354</v>
+        <v>0.78431372549019607</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="2"/>
-        <v>29.411764705882355</v>
+        <v>78.431372549019613</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>4th</v>
+        <v>2nd</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90196078431372551</v>
+        <v>0.47058823529411764</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="2"/>
-        <v>90.196078431372555</v>
+        <v>47.058823529411761</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1st</v>
+        <v>3rd</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41176470588235292</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="2"/>
-        <v>41.17647058823529</v>
+        <v>17.647058823529413</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>3rd</v>
+        <v>5th</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76470588235294112</v>
+        <v>0.19607843137254902</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="2"/>
-        <v>76.470588235294116</v>
+        <v>19.607843137254903</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2nd</v>
+        <v>5th</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11764705882352941</v>
+        <v>0.72549019607843135</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="2"/>
-        <v>11.76470588235294</v>
+        <v>72.549019607843135</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>5th</v>
+        <v>2nd</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8431372549019607E-2</v>
+        <v>0.47058823529411764</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="2"/>
-        <v>7.8431372549019605</v>
+        <v>47.058823529411761</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>5th</v>
+        <v>3rd</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="1"/>
-        <v>5.8823529411764705E-2</v>
+        <v>0.35294117647058826</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="2"/>
-        <v>5.8823529411764701</v>
+        <v>35.294117647058826</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>5th</v>
+        <v>4th</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8431372549019607E-2</v>
+        <v>1.9607843137254902E-2</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="2"/>
-        <v>7.8431372549019605</v>
+        <v>1.9607843137254901</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -5204,213 +5204,213 @@
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25490196078431371</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="2"/>
-        <v>25.490196078431371</v>
+        <v>5.8823529411764701</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>4th</v>
+        <v>5th</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31372549019607843</v>
+        <v>0.94117647058823528</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="2"/>
-        <v>31.372549019607842</v>
+        <v>94.117647058823522</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>4th</v>
+        <v>1st</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74509803921568629</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="2"/>
-        <v>74.509803921568633</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2nd</v>
+        <v>5th</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41176470588235292</v>
+        <v>0.21568627450980393</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="2"/>
-        <v>41.17647058823529</v>
+        <v>21.568627450980394</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>3rd</v>
+        <v>4th</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47058823529411764</v>
+        <v>0.21568627450980393</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="2"/>
-        <v>47.058823529411761</v>
+        <v>21.568627450980394</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>3rd</v>
+        <v>4th</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33333333333333331</v>
+        <v>0.47058823529411764</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="2"/>
-        <v>33.333333333333329</v>
+        <v>47.058823529411761</v>
       </c>
       <c r="D64" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>4th</v>
+        <v>3rd</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B65">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11764705882352941</v>
+        <v>0.96078431372549022</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="2"/>
-        <v>11.76470588235294</v>
+        <v>96.078431372549019</v>
       </c>
       <c r="D65" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>5th</v>
+        <v>1st</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66">
         <f t="shared" ref="A66:A100" ca="1" si="4">RANDBETWEEN(0,51)</f>
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B66">
         <f t="shared" ref="B66:B100" ca="1" si="5">A66/51</f>
-        <v>0.50980392156862742</v>
+        <v>0.35294117647058826</v>
       </c>
       <c r="C66">
         <f t="shared" ref="C66:C100" ca="1" si="6">B66*100</f>
-        <v>50.980392156862742</v>
+        <v>35.294117647058826</v>
       </c>
       <c r="D66" t="str">
         <f t="shared" ref="D66:D100" ca="1" si="7">IF(C66&gt;=80,"1st",IF(C66&gt;=60,"2nd",IF(C66&gt;=40,"3rd",IF(C66&gt;=20,"4th",IF(1=1,"5th")))))</f>
-        <v>3rd</v>
+        <v>4th</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67">
         <f t="shared" ca="1" si="4"/>
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B67">
         <f t="shared" ca="1" si="5"/>
-        <v>0.60784313725490191</v>
+        <v>0.50980392156862742</v>
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="6"/>
-        <v>60.784313725490193</v>
+        <v>50.980392156862742</v>
       </c>
       <c r="D67" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2nd</v>
+        <v>3rd</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B68">
         <f t="shared" ca="1" si="5"/>
-        <v>0.31372549019607843</v>
+        <v>0.62745098039215685</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="6"/>
-        <v>31.372549019607842</v>
+        <v>62.745098039215684</v>
       </c>
       <c r="D68" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>4th</v>
+        <v>2nd</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B69">
         <f t="shared" ca="1" si="5"/>
-        <v>0.15686274509803921</v>
+        <v>0.90196078431372551</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="6"/>
-        <v>15.686274509803921</v>
+        <v>90.196078431372555</v>
       </c>
       <c r="D69" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>5th</v>
+        <v>1st</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B70">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0.92156862745098034</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="6"/>
-        <v>100</v>
+        <v>92.156862745098039</v>
       </c>
       <c r="D70" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -5420,33 +5420,33 @@
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="B71">
         <f t="shared" ca="1" si="5"/>
-        <v>0.17647058823529413</v>
+        <v>0.96078431372549022</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="6"/>
-        <v>17.647058823529413</v>
+        <v>96.078431372549019</v>
       </c>
       <c r="D71" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>5th</v>
+        <v>1st</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B72">
         <f t="shared" ca="1" si="5"/>
-        <v>7.8431372549019607E-2</v>
+        <v>1.9607843137254902E-2</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="6"/>
-        <v>7.8431372549019605</v>
+        <v>1.9607843137254901</v>
       </c>
       <c r="D72" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -5456,33 +5456,33 @@
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="B73">
         <f t="shared" ca="1" si="5"/>
-        <v>0.11764705882352941</v>
+        <v>0.92156862745098034</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="6"/>
-        <v>11.76470588235294</v>
+        <v>92.156862745098039</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>5th</v>
+        <v>1st</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74">
         <f t="shared" ca="1" si="4"/>
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B74">
         <f t="shared" ca="1" si="5"/>
-        <v>0.82352941176470584</v>
+        <v>0.96078431372549022</v>
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="6"/>
-        <v>82.35294117647058</v>
+        <v>96.078431372549019</v>
       </c>
       <c r="D74" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -5492,159 +5492,159 @@
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75">
         <f t="shared" ca="1" si="4"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B75">
         <f t="shared" ca="1" si="5"/>
-        <v>0.39215686274509803</v>
+        <v>0.98039215686274506</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="6"/>
-        <v>39.215686274509807</v>
+        <v>98.039215686274503</v>
       </c>
       <c r="D75" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>4th</v>
+        <v>1st</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="B76">
         <f t="shared" ca="1" si="5"/>
-        <v>5.8823529411764705E-2</v>
+        <v>0.74509803921568629</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="6"/>
-        <v>5.8823529411764701</v>
+        <v>74.509803921568633</v>
       </c>
       <c r="D76" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>5th</v>
+        <v>2nd</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77">
         <f t="shared" ca="1" si="4"/>
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="B77">
         <f t="shared" ca="1" si="5"/>
-        <v>0.94117647058823528</v>
+        <v>9.8039215686274508E-2</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="6"/>
-        <v>94.117647058823522</v>
+        <v>9.8039215686274517</v>
       </c>
       <c r="D77" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1st</v>
+        <v>5th</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78">
         <f t="shared" ca="1" si="4"/>
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="B78">
         <f t="shared" ca="1" si="5"/>
-        <v>0.82352941176470584</v>
+        <v>0.39215686274509803</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="6"/>
-        <v>82.35294117647058</v>
+        <v>39.215686274509807</v>
       </c>
       <c r="D78" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1st</v>
+        <v>4th</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79">
         <f t="shared" ca="1" si="4"/>
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B79">
         <f t="shared" ca="1" si="5"/>
-        <v>0.5490196078431373</v>
+        <v>0.84313725490196079</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="6"/>
-        <v>54.901960784313729</v>
+        <v>84.313725490196077</v>
       </c>
       <c r="D79" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>3rd</v>
+        <v>1st</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B80">
         <f t="shared" ca="1" si="5"/>
-        <v>5.8823529411764705E-2</v>
+        <v>0.23529411764705882</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="6"/>
-        <v>5.8823529411764701</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="D80" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>5th</v>
+        <v>4th</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81">
         <f t="shared" ca="1" si="4"/>
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B81">
         <f t="shared" ca="1" si="5"/>
-        <v>0.66666666666666663</v>
+        <v>0.84313725490196079</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="6"/>
-        <v>66.666666666666657</v>
+        <v>84.313725490196077</v>
       </c>
       <c r="D81" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2nd</v>
+        <v>1st</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82">
         <f t="shared" ca="1" si="4"/>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B82">
         <f t="shared" ca="1" si="5"/>
-        <v>0.56862745098039214</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="6"/>
-        <v>56.862745098039213</v>
+        <v>64.705882352941174</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>3rd</v>
+        <v>2nd</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83">
         <f t="shared" ca="1" si="4"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B83">
         <f t="shared" ca="1" si="5"/>
-        <v>0.33333333333333331</v>
+        <v>0.37254901960784315</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="6"/>
-        <v>33.333333333333329</v>
+        <v>37.254901960784316</v>
       </c>
       <c r="D83" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -5654,177 +5654,177 @@
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84">
         <f t="shared" ca="1" si="4"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B84">
         <f t="shared" ca="1" si="5"/>
-        <v>0.82352941176470584</v>
+        <v>0.62745098039215685</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="6"/>
-        <v>82.35294117647058</v>
+        <v>62.745098039215684</v>
       </c>
       <c r="D84" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1st</v>
+        <v>2nd</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85">
         <f t="shared" ca="1" si="4"/>
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B85">
         <f t="shared" ca="1" si="5"/>
-        <v>0.5490196078431373</v>
+        <v>0.78431372549019607</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="6"/>
-        <v>54.901960784313729</v>
+        <v>78.431372549019613</v>
       </c>
       <c r="D85" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>3rd</v>
+        <v>2nd</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86">
         <f t="shared" ca="1" si="4"/>
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B86">
         <f t="shared" ca="1" si="5"/>
-        <v>0.37254901960784315</v>
+        <v>0.98039215686274506</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="6"/>
-        <v>37.254901960784316</v>
+        <v>98.039215686274503</v>
       </c>
       <c r="D86" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>4th</v>
+        <v>1st</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="B87">
         <f t="shared" ca="1" si="5"/>
-        <v>0.23529411764705882</v>
+        <v>1</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="6"/>
-        <v>23.52941176470588</v>
+        <v>100</v>
       </c>
       <c r="D87" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>4th</v>
+        <v>1st</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="B88">
         <f t="shared" ca="1" si="5"/>
-        <v>3.9215686274509803E-2</v>
+        <v>0.74509803921568629</v>
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="6"/>
-        <v>3.9215686274509802</v>
+        <v>74.509803921568633</v>
       </c>
       <c r="D88" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>5th</v>
+        <v>2nd</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B89">
         <f t="shared" ca="1" si="5"/>
-        <v>0.27450980392156865</v>
+        <v>0.68627450980392157</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="6"/>
-        <v>27.450980392156865</v>
+        <v>68.627450980392155</v>
       </c>
       <c r="D89" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>4th</v>
+        <v>2nd</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90">
         <f t="shared" ca="1" si="4"/>
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="B90">
         <f t="shared" ca="1" si="5"/>
-        <v>0.60784313725490191</v>
+        <v>3.9215686274509803E-2</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="6"/>
-        <v>60.784313725490193</v>
+        <v>3.9215686274509802</v>
       </c>
       <c r="D90" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2nd</v>
+        <v>5th</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91">
         <f t="shared" ca="1" si="4"/>
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="B91">
         <f t="shared" ca="1" si="5"/>
-        <v>0.84313725490196079</v>
+        <v>0.13725490196078433</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="6"/>
-        <v>84.313725490196077</v>
+        <v>13.725490196078432</v>
       </c>
       <c r="D91" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1st</v>
+        <v>5th</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92">
         <f t="shared" ca="1" si="4"/>
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B92">
         <f t="shared" ca="1" si="5"/>
-        <v>0.39215686274509803</v>
+        <v>0.62745098039215685</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="6"/>
-        <v>39.215686274509807</v>
+        <v>62.745098039215684</v>
       </c>
       <c r="D92" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>4th</v>
+        <v>2nd</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93">
         <f t="shared" ca="1" si="4"/>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B93">
         <f t="shared" ca="1" si="5"/>
-        <v>0.58823529411764708</v>
+        <v>0.49019607843137253</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="6"/>
-        <v>58.82352941176471</v>
+        <v>49.019607843137251</v>
       </c>
       <c r="D93" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -5834,87 +5834,87 @@
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94">
         <f t="shared" ca="1" si="4"/>
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B94">
         <f t="shared" ca="1" si="5"/>
-        <v>0.74509803921568629</v>
+        <v>7.8431372549019607E-2</v>
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="6"/>
-        <v>74.509803921568633</v>
+        <v>7.8431372549019605</v>
       </c>
       <c r="D94" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2nd</v>
+        <v>5th</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95">
         <f t="shared" ca="1" si="4"/>
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="B95">
         <f t="shared" ca="1" si="5"/>
-        <v>0.86274509803921573</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="6"/>
-        <v>86.274509803921575</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="D95" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>1st</v>
+        <v>5th</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96">
         <f t="shared" ca="1" si="4"/>
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B96">
         <f t="shared" ca="1" si="5"/>
-        <v>0.66666666666666663</v>
+        <v>0.94117647058823528</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="6"/>
-        <v>66.666666666666657</v>
+        <v>94.117647058823522</v>
       </c>
       <c r="D96" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2nd</v>
+        <v>1st</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97">
         <f t="shared" ca="1" si="4"/>
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B97">
         <f t="shared" ca="1" si="5"/>
-        <v>0.68627450980392157</v>
+        <v>0.47058823529411764</v>
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="6"/>
-        <v>68.627450980392155</v>
+        <v>47.058823529411761</v>
       </c>
       <c r="D97" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2nd</v>
+        <v>3rd</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B98">
         <f t="shared" ca="1" si="5"/>
-        <v>0.19607843137254902</v>
+        <v>1.9607843137254902E-2</v>
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="6"/>
-        <v>19.607843137254903</v>
+        <v>1.9607843137254901</v>
       </c>
       <c r="D98" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -5924,37 +5924,37 @@
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99">
         <f t="shared" ca="1" si="4"/>
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B99">
         <f t="shared" ca="1" si="5"/>
-        <v>0.35294117647058826</v>
+        <v>0.76470588235294112</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="6"/>
-        <v>35.294117647058826</v>
+        <v>76.470588235294116</v>
       </c>
       <c r="D99" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>4th</v>
+        <v>2nd</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100">
         <f t="shared" ca="1" si="4"/>
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="B100">
         <f t="shared" ca="1" si="5"/>
-        <v>0.6470588235294118</v>
+        <v>7.8431372549019607E-2</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="6"/>
-        <v>64.705882352941174</v>
+        <v>7.8431372549019605</v>
       </c>
       <c r="D100" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2nd</v>
+        <v>5th</v>
       </c>
     </row>
   </sheetData>
